--- a/results/metric_df/HPA_metrics.xlsx
+++ b/results/metric_df/HPA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>3.13128115550573</v>
       </c>
       <c r="D2" t="n">
+        <v>3.13128115550573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.13128115550573</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.748175182481752</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.491</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>2.86</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>['GalNAc(a1-?)']</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -540,30 +556,36 @@
         <v>2.973940888302121</v>
       </c>
       <c r="D3" t="n">
+        <v>2.973940888302121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.973940888302121</v>
+      </c>
+      <c r="F3" t="n">
         <v>14.89044904490449</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.423</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>2.88</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>['GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>['GalNAc(a1-?)']</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -582,30 +604,36 @@
         <v>3.119731842208471</v>
       </c>
       <c r="D4" t="n">
+        <v>3.119731842208471</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.119731842208471</v>
+      </c>
+      <c r="F4" t="n">
         <v>3.056656834316568</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.448</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>3.41</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>['GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>['GalNAc(a1-?)']</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -624,30 +652,36 @@
         <v>3.168148491175445</v>
       </c>
       <c r="D5" t="n">
+        <v>3.168148491175445</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.168148491175445</v>
+      </c>
+      <c r="F5" t="n">
         <v>4.131773645270947</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.44</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>10.3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['GalNAc(a1-?)']</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -656,586 +690,46 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>GalNAc(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2004947984197432</v>
+        <v>3.90718210459456</v>
       </c>
       <c r="C6" t="n">
-        <v>3.250676327925827</v>
+        <v>3.224058460398829</v>
       </c>
       <c r="D6" t="n">
-        <v>3.30334</v>
+        <v>3.224058460398829</v>
       </c>
       <c r="E6" t="n">
-        <v>0.433</v>
+        <v>3.224058460398829</v>
       </c>
       <c r="F6" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>0.512984631796513</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.1463668574055763</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.708633284112756</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.8989098909891</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="F7" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['B2,5']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.2758897771748474</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.126238794575282</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.40945714285714</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GalNAc(a1-3)GalNAc</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.90718210459456</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.224058460398829</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.512984631796513</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>['GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['GalNAc(a1-?)']</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.3319474550886918</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.918360420020854</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.114328099476616</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4345</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.09547349264124011</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.02411334698875</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.97419146974191</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4395</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-3)Fuc</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.1320118903245353</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.44879154250173</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.753549645035496</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-3)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.2097037951304326</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.33805605649451</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.397433333333334</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.282287493051551</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.384846311904607</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.510950000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-3)GalNAc</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.01888831395230112</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.189582406391184</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3374462553744627</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.278448196055304</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.187208375547809</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.723719294737193</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.4705</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.505000000000001</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)', 'GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.2538307531140521</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.293891865903291</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.7885</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.265525773075046</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.321409580704815</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.234</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>GlcNAc(b1-6)GalNAc</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.2752799096364064</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.505348698382484</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.00929907009299</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/results/metric_df/HPA_metrics.xlsx
+++ b/results/metric_df/HPA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>2.941023463834514</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.13128115550573</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13128115550573</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>3.13128115550573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.748175182481752</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.234424633348246</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>3.350821371308619</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.973940888302121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.973940888302121</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>2.973940888302121</v>
       </c>
       <c r="F3" t="n">
-        <v>14.89044904490449</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>2.332801287369361</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>2.402660585573071</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.119731842208471</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.119731842208471</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>3.119731842208471</v>
       </c>
       <c r="F4" t="n">
-        <v>3.056656834316568</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.7661902446741994</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>2.123484087272886</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.168148491175445</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.168148491175445</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>3.168148491175445</v>
       </c>
       <c r="F5" t="n">
-        <v>4.131773645270947</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.8630683869676127</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>3.90718210459456</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.224058460398829</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.224058460398829</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>3.224058460398829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.512984631796513</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.2143102970853854</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
